--- a/Timesheets/2019-05-26.xlsx
+++ b/Timesheets/2019-05-26.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cdemolde\Documents\GitHub\Coleman-Nordic-Butterfly\Timesheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAB9E81B-DC2A-45CA-B25E-CD8746FFF943}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99BBE00E-B759-4B39-B455-B747BBE746FD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-12645" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="timesheet.hourly" sheetId="1" r:id="rId1"/>
@@ -974,10 +974,52 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="19" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1021,48 +1063,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1548,7 +1548,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -1592,7 +1592,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -1620,7 +1620,7 @@
   <dimension ref="A1:R41"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.42578125" defaultRowHeight="12.75"/>
@@ -1638,47 +1638,47 @@
       <c r="A2" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="98" t="s">
+      <c r="B2" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
-      <c r="N2" s="99"/>
-      <c r="O2" s="99"/>
-      <c r="P2" s="99"/>
-      <c r="Q2" s="99"/>
-      <c r="R2" s="99"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
+      <c r="L2" s="85"/>
+      <c r="M2" s="85"/>
+      <c r="N2" s="85"/>
+      <c r="O2" s="85"/>
+      <c r="P2" s="85"/>
+      <c r="Q2" s="85"/>
+      <c r="R2" s="85"/>
     </row>
     <row r="3" spans="1:18" ht="12.95" customHeight="1">
       <c r="A3" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="100"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="80"/>
-      <c r="L3" s="80"/>
-      <c r="M3" s="80"/>
-      <c r="N3" s="80"/>
-      <c r="O3" s="80"/>
-      <c r="P3" s="80"/>
-      <c r="Q3" s="80"/>
-      <c r="R3" s="80"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="83"/>
+      <c r="K3" s="83"/>
+      <c r="L3" s="83"/>
+      <c r="M3" s="83"/>
+      <c r="N3" s="83"/>
+      <c r="O3" s="83"/>
+      <c r="P3" s="83"/>
+      <c r="Q3" s="83"/>
+      <c r="R3" s="83"/>
     </row>
     <row r="4" spans="1:18" ht="0.95" hidden="1" customHeight="1">
       <c r="B4" s="8"/>
@@ -1719,33 +1719,33 @@
       <c r="R5" s="14"/>
     </row>
     <row r="6" spans="1:18" ht="20.100000000000001" customHeight="1">
-      <c r="B6" s="107" t="s">
+      <c r="B6" s="93" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="107"/>
+      <c r="C6" s="93"/>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
       <c r="F6" s="18"/>
-      <c r="G6" s="105"/>
-      <c r="H6" s="106"/>
-      <c r="I6" s="106"/>
-      <c r="J6" s="106"/>
-      <c r="K6" s="106"/>
+      <c r="G6" s="91"/>
+      <c r="H6" s="92"/>
+      <c r="I6" s="92"/>
+      <c r="J6" s="92"/>
+      <c r="K6" s="92"/>
       <c r="L6" s="8"/>
-      <c r="M6" s="94" t="s">
+      <c r="M6" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="N6" s="95"/>
-      <c r="O6" s="95"/>
-      <c r="P6" s="95"/>
-      <c r="Q6" s="95"/>
-      <c r="R6" s="95"/>
+      <c r="N6" s="80"/>
+      <c r="O6" s="80"/>
+      <c r="P6" s="80"/>
+      <c r="Q6" s="80"/>
+      <c r="R6" s="80"/>
     </row>
     <row r="7" spans="1:18" ht="20.100000000000001" customHeight="1">
-      <c r="B7" s="103" t="s">
+      <c r="B7" s="89" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="104"/>
+      <c r="C7" s="90"/>
       <c r="D7" s="24"/>
       <c r="E7" s="25"/>
       <c r="F7" s="25"/>
@@ -1755,14 +1755,14 @@
       <c r="J7" s="13"/>
       <c r="K7" s="11"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="81" t="s">
+      <c r="M7" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="N7" s="82"/>
-      <c r="O7" s="82"/>
-      <c r="P7" s="82"/>
-      <c r="Q7" s="82"/>
-      <c r="R7" s="82"/>
+      <c r="N7" s="96"/>
+      <c r="O7" s="96"/>
+      <c r="P7" s="96"/>
+      <c r="Q7" s="96"/>
+      <c r="R7" s="96"/>
     </row>
     <row r="8" spans="1:18" ht="11.1" customHeight="1">
       <c r="B8" s="11"/>
@@ -1805,10 +1805,10 @@
       <c r="R9" s="31"/>
     </row>
     <row r="10" spans="1:18" s="1" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="B10" s="92" t="s">
+      <c r="B10" s="106" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="88" t="s">
+      <c r="C10" s="102" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="65" t="s">
@@ -1856,8 +1856,8 @@
       <c r="R10" s="7"/>
     </row>
     <row r="11" spans="1:18" s="1" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="B11" s="93"/>
-      <c r="C11" s="89"/>
+      <c r="B11" s="107"/>
+      <c r="C11" s="103"/>
       <c r="D11" s="64">
         <v>42149</v>
       </c>
@@ -1905,7 +1905,7 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="33" customHeight="1">
-      <c r="B12" s="87" t="s">
+      <c r="B12" s="101" t="s">
         <v>24</v>
       </c>
       <c r="C12" s="36" t="s">
@@ -1921,19 +1921,25 @@
       <c r="I12" s="38"/>
       <c r="J12" s="39"/>
       <c r="K12" s="37"/>
-      <c r="L12" s="38"/>
-      <c r="M12" s="38"/>
+      <c r="L12" s="38">
+        <v>2.5</v>
+      </c>
+      <c r="M12" s="38">
+        <v>1.5</v>
+      </c>
       <c r="N12" s="38"/>
       <c r="O12" s="38"/>
-      <c r="P12" s="38"/>
+      <c r="P12" s="38">
+        <v>0.5</v>
+      </c>
       <c r="Q12" s="39"/>
       <c r="R12" s="55">
         <f t="shared" ref="R12:R21" si="0">SUM(D12:Q12)</f>
-        <v>1.75</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="33" customHeight="1" thickBot="1">
-      <c r="B13" s="84"/>
+      <c r="B13" s="98"/>
       <c r="C13" s="40" t="s">
         <v>20</v>
       </c>
@@ -1957,7 +1963,7 @@
       </c>
     </row>
     <row r="14" spans="1:18" ht="33" customHeight="1">
-      <c r="B14" s="83"/>
+      <c r="B14" s="97"/>
       <c r="C14" s="44" t="s">
         <v>13</v>
       </c>
@@ -1981,7 +1987,7 @@
       </c>
     </row>
     <row r="15" spans="1:18" ht="33" customHeight="1" thickBot="1">
-      <c r="B15" s="84"/>
+      <c r="B15" s="98"/>
       <c r="C15" s="40" t="s">
         <v>20</v>
       </c>
@@ -2005,7 +2011,7 @@
       </c>
     </row>
     <row r="16" spans="1:18" ht="33" customHeight="1">
-      <c r="B16" s="83"/>
+      <c r="B16" s="97"/>
       <c r="C16" s="44" t="s">
         <v>13</v>
       </c>
@@ -2029,7 +2035,7 @@
       </c>
     </row>
     <row r="17" spans="2:18" ht="33" customHeight="1" thickBot="1">
-      <c r="B17" s="84"/>
+      <c r="B17" s="98"/>
       <c r="C17" s="40" t="s">
         <v>20</v>
       </c>
@@ -2053,7 +2059,7 @@
       </c>
     </row>
     <row r="18" spans="2:18" ht="33" customHeight="1">
-      <c r="B18" s="83"/>
+      <c r="B18" s="97"/>
       <c r="C18" s="44" t="s">
         <v>13</v>
       </c>
@@ -2077,7 +2083,7 @@
       </c>
     </row>
     <row r="19" spans="2:18" ht="33" customHeight="1" thickBot="1">
-      <c r="B19" s="84"/>
+      <c r="B19" s="98"/>
       <c r="C19" s="40" t="s">
         <v>21</v>
       </c>
@@ -2101,7 +2107,7 @@
       </c>
     </row>
     <row r="20" spans="2:18" ht="33" customHeight="1">
-      <c r="B20" s="90"/>
+      <c r="B20" s="104"/>
       <c r="C20" s="44" t="s">
         <v>13</v>
       </c>
@@ -2125,7 +2131,7 @@
       </c>
     </row>
     <row r="21" spans="2:18" ht="33" customHeight="1" thickBot="1">
-      <c r="B21" s="91"/>
+      <c r="B21" s="105"/>
       <c r="C21" s="48" t="s">
         <v>20</v>
       </c>
@@ -2149,10 +2155,10 @@
       </c>
     </row>
     <row r="22" spans="2:18" ht="35.1" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B22" s="101" t="s">
+      <c r="B22" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="102"/>
+      <c r="C22" s="88"/>
       <c r="D22" s="59">
         <f t="shared" ref="D22:Q22" si="1">SUM(D12:D21)</f>
         <v>0</v>
@@ -2187,11 +2193,11 @@
       </c>
       <c r="L22" s="60">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="M22" s="60">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="N22" s="60">
         <f t="shared" si="1"/>
@@ -2203,7 +2209,7 @@
       </c>
       <c r="P22" s="69">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q22" s="63">
         <f t="shared" si="1"/>
@@ -2211,7 +2217,7 @@
       </c>
       <c r="R22" s="58">
         <f>SUM(D22:Q22)</f>
-        <v>1.75</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="23" spans="2:18" ht="29.1" customHeight="1">
@@ -2250,8 +2256,8 @@
       <c r="F25"/>
       <c r="G25"/>
       <c r="H25"/>
-      <c r="I25" s="96"/>
-      <c r="J25" s="97"/>
+      <c r="I25" s="81"/>
+      <c r="J25" s="82"/>
       <c r="K25" s="70"/>
       <c r="L25" s="71"/>
       <c r="M25" s="71"/>
@@ -2265,8 +2271,8 @@
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="H26"/>
-      <c r="I26" s="85"/>
-      <c r="J26" s="86"/>
+      <c r="I26" s="99"/>
+      <c r="J26" s="100"/>
       <c r="K26" s="75"/>
       <c r="L26" s="75"/>
       <c r="M26" s="75"/>
@@ -2285,8 +2291,8 @@
       </c>
       <c r="F27" s="6"/>
       <c r="G27" s="15"/>
-      <c r="I27" s="80"/>
-      <c r="J27" s="80"/>
+      <c r="I27" s="83"/>
+      <c r="J27" s="83"/>
       <c r="K27" s="75"/>
       <c r="L27" s="75"/>
       <c r="M27" s="75"/>
@@ -2305,8 +2311,8 @@
       <c r="E28" s="22"/>
       <c r="F28" s="23"/>
       <c r="G28" s="23"/>
-      <c r="I28" s="80"/>
-      <c r="J28" s="80"/>
+      <c r="I28" s="83"/>
+      <c r="J28" s="83"/>
       <c r="K28" s="75"/>
       <c r="L28" s="75"/>
       <c r="M28" s="75"/>
@@ -2326,8 +2332,8 @@
       <c r="F29"/>
       <c r="G29"/>
       <c r="H29"/>
-      <c r="I29" s="80"/>
-      <c r="J29" s="80"/>
+      <c r="I29" s="83"/>
+      <c r="J29" s="83"/>
       <c r="K29" s="75"/>
       <c r="L29" s="75"/>
       <c r="M29" s="75"/>
@@ -2347,8 +2353,8 @@
       <c r="F30"/>
       <c r="G30"/>
       <c r="H30"/>
-      <c r="I30" s="80"/>
-      <c r="J30" s="80"/>
+      <c r="I30" s="83"/>
+      <c r="J30" s="83"/>
       <c r="K30" s="75"/>
       <c r="L30" s="75"/>
       <c r="M30" s="75"/>
@@ -2361,8 +2367,8 @@
     <row r="31" spans="2:18" ht="21.95" customHeight="1">
       <c r="D31"/>
       <c r="G31"/>
-      <c r="I31" s="79"/>
-      <c r="J31" s="79"/>
+      <c r="I31" s="94"/>
+      <c r="J31" s="94"/>
     </row>
     <row r="32" spans="2:18" ht="21.95" customHeight="1">
       <c r="B32"/>
@@ -2395,15 +2401,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="M6:R6"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="B2:R2"/>
-    <mergeCell ref="B3:R3"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="G6:K6"/>
-    <mergeCell ref="B6:C6"/>
     <mergeCell ref="I31:J31"/>
     <mergeCell ref="I30:J30"/>
     <mergeCell ref="M7:R7"/>
@@ -2417,6 +2414,15 @@
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="B10:B11"/>
+    <mergeCell ref="M6:R6"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="B2:R2"/>
+    <mergeCell ref="B3:R3"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="G6:K6"/>
+    <mergeCell ref="B6:C6"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
